--- a/biology/Virologie/Coronavirus_de_Roussette_GCCDC1/Coronavirus_de_Roussette_GCCDC1.xlsx
+++ b/biology/Virologie/Coronavirus_de_Roussette_GCCDC1/Coronavirus_de_Roussette_GCCDC1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Coronavirus de Roussette GCCDC1, sous son nom scientifique Rousettus bat coronavirus GCCDC1, ou Ro-BatCoV GCCDC1 est une espèce de Betacoronavirus du groupe D (Nobecovirus)[1]. C'est un virus enveloppé à ARN monocaténaire à polarité positive recombinant[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Coronavirus de Roussette GCCDC1, sous son nom scientifique Rousettus bat coronavirus GCCDC1, ou Ro-BatCoV GCCDC1 est une espèce de Betacoronavirus du groupe D (Nobecovirus). C'est un virus enveloppé à ARN monocaténaire à polarité positive recombinant.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Espèce hôte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été identifié chez la chauve-souris frugivore Rousettus leschenaulti (Roussette de Leschenault) du Yunnan[3] en 2016.
-Une souche apparentée a été retrouvée dans une colonie captive de chauves-souris Eonycteris spelaea capturées à Singapour[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été identifié chez la chauve-souris frugivore Rousettus leschenaulti (Roussette de Leschenault) du Yunnan en 2016.
+Une souche apparentée a été retrouvée dans une colonie captive de chauves-souris Eonycteris spelaea capturées à Singapour.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Histoire évolutive</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Ro-BatCoV GCCDC1 dispose d'un gène inconnu chez les autres coronavirus, qui semble provenir du gène p10 d'un orthoreovirus de chauve-souris. Ce gène p10 est fonctionnel et induit la formation de syncytiums cellulaires, ce qui suggère l’hypothèse que ce virus résulte d'une recombinaison hétérologue interfamiliale entre un virus à ARN simple brin de sens positif et un virus à ARN segmenté double brin[3]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Ro-BatCoV GCCDC1 dispose d'un gène inconnu chez les autres coronavirus, qui semble provenir du gène p10 d'un orthoreovirus de chauve-souris. Ce gène p10 est fonctionnel et induit la formation de syncytiums cellulaires, ce qui suggère l’hypothèse que ce virus résulte d'une recombinaison hétérologue interfamiliale entre un virus à ARN simple brin de sens positif et un virus à ARN segmenté double brin. 
 </t>
         </is>
       </c>
